--- a/Task Assignments.xlsx
+++ b/Task Assignments.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b517c6bce6837d9/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\OneDrive\Documents\CyberSoft\Capstone Project\Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{2464BFA0-0E72-4B64-8210-F713FDC522FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084AE5C8-53E7-4923-ACAE-7B4652D4FA8E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E218846-F70E-4B90-BE9D-995AF8603B63}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,20 +621,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEDD23-C436-4C0D-99B8-79C846B05180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -675,7 +674,7 @@
         <v>44830</v>
       </c>
       <c r="C2" s="6">
-        <v>44908</v>
+        <v>44831</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -695,14 +694,18 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12">
-        <v>0.5</v>
+      <c r="B3" s="6">
+        <v>44831</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44831</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -717,14 +720,18 @@
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13">
-        <v>0.9</v>
+      <c r="B4" s="6">
+        <v>44831</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44832</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -739,7 +746,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -761,7 +768,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -783,7 +790,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -803,7 +810,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -825,7 +832,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -845,7 +852,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -865,7 +872,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>

--- a/Task Assignments.xlsx
+++ b/Task Assignments.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\OneDrive\Documents\CyberSoft\Capstone Project\Diner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b517c6bce6837d9/Documents/CyberSoft/Capstone Project/Diner/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_D78860F9911D60190EE4AD9DCAD055ABD25F1F02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99894EC-F7EB-433A-A8A5-C63A472D67EF}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -72,9 +63,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Dev2</t>
-  </si>
-  <si>
     <t>Vĩnh Kha</t>
   </si>
   <si>
@@ -103,12 +91,15 @@
   </si>
   <si>
     <t>Footer</t>
+  </si>
+  <si>
+    <t>Thế Anh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,20 +612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -666,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -680,23 +671,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="6">
         <v>44909</v>
       </c>
       <c r="H2" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>44831</v>
@@ -708,21 +697,21 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6">
         <v>44909</v>
       </c>
       <c r="H3" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>44831</v>
@@ -734,164 +723,178 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6">
         <v>44909</v>
       </c>
       <c r="H4" s="13">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44832</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44832</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.9</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6">
         <v>44909</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44832</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44832</v>
+      </c>
       <c r="D6" s="13">
         <v>0.9</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="6">
         <v>44909</v>
       </c>
       <c r="H6" s="13">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="6">
         <v>44909</v>
       </c>
       <c r="H7" s="13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6">
         <v>44909</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="6">
         <v>44909</v>
       </c>
-      <c r="H9" s="13">
-        <v>0.9</v>
+      <c r="H9" s="12">
+        <v>0</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="6">
         <v>44909</v>
       </c>
-      <c r="H10" s="13">
-        <v>0.8</v>
+      <c r="H10" s="12">
+        <v>0</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="6">
         <v>44909</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
   </sheetData>

--- a/Task Assignments.xlsx
+++ b/Task Assignments.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b517c6bce6837d9/Documents/CyberSoft/Capstone Project/Diner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\OneDrive\Documents\CyberSoft\Capstone Project\Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_D78860F9911D60190EE4AD9DCAD055ABD25F1F02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99894EC-F7EB-433A-A8A5-C63A472D67EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -91,15 +90,12 @@
   </si>
   <si>
     <t>Footer</t>
-  </si>
-  <si>
-    <t>Thế Anh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +172,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAEABAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -255,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,19 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,20 +590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -657,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -673,18 +651,22 @@
       <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="6">
+        <v>44848</v>
+      </c>
       <c r="G2" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -699,17 +681,21 @@
       <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="6">
+        <v>44848</v>
+      </c>
       <c r="G3" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -725,18 +711,22 @@
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="6">
+        <v>44848</v>
+      </c>
       <c r="G4" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6">
@@ -745,24 +735,28 @@
       <c r="C5" s="6">
         <v>44832</v>
       </c>
-      <c r="D5" s="13">
-        <v>0.9</v>
+      <c r="D5" s="7">
+        <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="6">
+        <v>44848</v>
+      </c>
       <c r="G5" s="6">
-        <v>44909</v>
+        <v>44848</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6">
@@ -771,130 +765,174 @@
       <c r="C6" s="6">
         <v>44832</v>
       </c>
-      <c r="D6" s="13">
-        <v>0.9</v>
+      <c r="D6" s="7">
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="6">
+        <v>44848</v>
+      </c>
       <c r="G6" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13">
-        <v>0</v>
+      <c r="B7" s="6">
+        <v>44835</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44835</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44848</v>
+      </c>
       <c r="G7" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13">
-        <v>0</v>
+      <c r="B8" s="6">
+        <v>44843</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44844</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44848</v>
+      </c>
       <c r="G8" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13">
-        <v>0</v>
+      <c r="B9" s="6">
+        <v>44845</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44846</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44848</v>
+      </c>
       <c r="G9" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13">
-        <v>0</v>
+      <c r="B10" s="6">
+        <v>44847</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44847</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44848</v>
+      </c>
       <c r="G10" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13">
-        <v>0</v>
+      <c r="B11" s="6">
+        <v>44848</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44848</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44848</v>
+      </c>
       <c r="G11" s="6">
-        <v>44909</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>44848</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
   </sheetData>
